--- a/dist/static/油品价格导入模版.xlsx
+++ b/dist/static/油品价格导入模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28215" windowHeight="11460"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
     <t>备注</t>
   </si>
   <si>
-    <t>深圳加油站</t>
+    <t>南山油站</t>
   </si>
   <si>
     <t>中国石化</t>
   </si>
   <si>
-    <t>97#汽油</t>
+    <t>93#汽油</t>
   </si>
   <si>
     <t>示例，请务必按此格式录入，录入前请删除此条信息</t>
@@ -53,11 +53,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -76,6 +77,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -84,7 +99,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,6 +120,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -130,90 +183,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +229,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -240,12 +259,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -258,7 +313,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,19 +355,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,121 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +420,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,46 +492,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,27 +520,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,133 +538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -673,14 +674,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1037,7 +1038,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1085,13 +1086,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="6">
-        <v>7</v>
+        <v>7.01</v>
       </c>
       <c r="E2" s="6">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="F2" s="6">
-        <v>5</v>
+        <v>5.03</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>10</v>

--- a/dist/static/油品价格导入模版.xlsx
+++ b/dist/static/油品价格导入模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28215" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
     <t>备注</t>
   </si>
   <si>
-    <t>南山油站</t>
+    <t>深圳加油站</t>
   </si>
   <si>
     <t>中国石化</t>
   </si>
   <si>
-    <t>93#汽油</t>
+    <t>97#汽油</t>
   </si>
   <si>
     <t>示例，请务必按此格式录入，录入前请删除此条信息</t>
@@ -53,12 +53,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -77,20 +76,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -99,7 +84,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,8 +105,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,6 +131,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,79 +151,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,13 +228,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,169 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,56 +419,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,7 +441,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,16 +508,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +537,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -674,14 +673,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1038,7 +1037,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1086,13 +1085,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="6">
-        <v>7.01</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6">
-        <v>6.02</v>
+        <v>6</v>
       </c>
       <c r="F2" s="6">
-        <v>5.03</v>
+        <v>5</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>10</v>
